--- a/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike\Roguelike_\Assets\Resources\csv\Actor\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>int</t>
   </si>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>extra_attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASHU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1166,6 +1170,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>100</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1083,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>67</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Player/Player_Excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB59837D-447A-4A43-B37C-D3B6BDAA1453}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1110,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -1205,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <v>100</v>
